--- a/sec2group.xlsx
+++ b/sec2group.xlsx
@@ -451,458 +451,458 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>กลุ่ม</t>
+          <t>Group</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>643150033-8</t>
+          <t>633150085-8</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>นางสาวลักษณพร โพธิ์ทอง</t>
+          <t>นางสาวกรรวี เสรีมานะกิจ</t>
         </is>
       </c>
       <c r="D2" t="n">
-        <v>1</v>
+        <v>14</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>35</v>
+        <v>2</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>643150140-7</t>
+          <t>643150019-2</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>นายธนภูมิ พิบูลภักดี</t>
+          <t>นายชินพัฒน์ สุวรรณโสฬส</t>
         </is>
       </c>
       <c r="D3" t="n">
-        <v>1</v>
+        <v>16</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
+        <v>3</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>643150020-7</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>นายณัชพล สีตะปัน</t>
+        </is>
+      </c>
+      <c r="D4" t="n">
         <v>11</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>643150029-9</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>นางสาวภัทรนันท์ กิจหนองสรวง</t>
-        </is>
-      </c>
-      <c r="D4" t="n">
-        <v>2</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>22</v>
+        <v>4</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>643150061-3</t>
+          <t>643150021-5</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>นายธนเดช หาวงค์</t>
+          <t>นางสาวณัฐวดี เสนาฤทธิ์</t>
         </is>
       </c>
       <c r="D5" t="n">
-        <v>2</v>
+        <v>15</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>643150024-9</t>
+          <t>643150022-3</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>นางสาวทรงพร ชัยจันทร์</t>
+          <t>นางสาวณัฐิดา สวัสดิ์นพรัตน์</t>
         </is>
       </c>
       <c r="D6" t="n">
-        <v>2</v>
+        <v>17</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>33</v>
+        <v>6</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>643150138-4</t>
+          <t>643150023-1</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>นายธนกฤต จันทร์ดวง</t>
+          <t>นางสาวณิศวราพร โสดาศรี</t>
         </is>
       </c>
       <c r="D7" t="n">
-        <v>3</v>
+        <v>18</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>40</v>
+        <v>7</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>643150145-7</t>
+          <t>643150024-9</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>นายนัฐพล ฤทธิ์ทรงเมือง</t>
+          <t>นางสาวทรงพร ชัยจันทร์</t>
         </is>
       </c>
       <c r="D8" t="n">
-        <v>3</v>
+        <v>14</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>23</v>
+        <v>8</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>643150062-1</t>
+          <t>643150025-7</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>นางสาวธนพร วงษ์วัฒนะ</t>
+          <t>นายธีรภัทร จินตนธรรม</t>
         </is>
       </c>
       <c r="D9" t="n">
-        <v>4</v>
+        <v>19</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>30</v>
+        <v>9</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>643150134-2</t>
+          <t>643150026-5</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>นางสาวคีตกานท์ สอนกุลภักดี</t>
+          <t>นางสาวใบโพธิ์ ศรีสว่างวงศ์</t>
         </is>
       </c>
       <c r="D10" t="n">
-        <v>4</v>
+        <v>13</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>39</v>
+        <v>10</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>643150144-9</t>
+          <t>643150028-1</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>นายนวดล สมทา</t>
+          <t>นางสาวพรชิตา เจษฎาธนบดี</t>
         </is>
       </c>
       <c r="D11" t="n">
-        <v>4</v>
+        <v>12</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>49</v>
+        <v>11</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>643150158-8</t>
+          <t>643150029-9</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>นางสาวอัจฉรียา ภูดินดาน</t>
+          <t>นางสาวภัทรนันท์ กิจหนองสรวง</t>
         </is>
       </c>
       <c r="D12" t="n">
-        <v>5</v>
+        <v>17</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>38</v>
+        <v>12</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>643150143-1</t>
+          <t>643150030-4</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>นางสาวนริศรา ตาระบัตร</t>
+          <t>นายภาณพ สนิมทอง</t>
         </is>
       </c>
       <c r="D13" t="n">
-        <v>5</v>
+        <v>15</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>643150036-2</t>
+          <t>643150031-2</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>นางสาวอิสริยาภรณ์ ปัดทุม</t>
+          <t>นางสาวยลรดี จุลานนท์</t>
         </is>
       </c>
       <c r="D14" t="n">
-        <v>6</v>
+        <v>20</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>643150028-1</t>
+          <t>643150032-0</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>นางสาวพรชิตา เจษฎาธนบดี</t>
+          <t>นางสาวรตินันท์ ทองสุกดี</t>
         </is>
       </c>
       <c r="D15" t="n">
-        <v>6</v>
+        <v>19</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>643150025-7</t>
+          <t>643150033-8</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>นายธีรภัทร จินตนธรรม</t>
+          <t>นางสาวลักษณพร โพธิ์ทอง</t>
         </is>
       </c>
       <c r="D16" t="n">
-        <v>6</v>
+        <v>15</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>1</v>
+        <v>16</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>633150085-8</t>
+          <t>643150035-4</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>นางสาวกรรวี เสรีมานะกิจ</t>
+          <t>นางสาวศศิกานต์ การปลูก</t>
         </is>
       </c>
       <c r="D17" t="n">
-        <v>7</v>
+        <v>17</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>43</v>
+        <v>17</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>643150149-9</t>
+          <t>643150036-2</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>นางสาวภัทราวดี หมู่มาก</t>
+          <t>นางสาวอิสริยาภรณ์ ปัดทุม</t>
         </is>
       </c>
       <c r="D18" t="n">
-        <v>7</v>
+        <v>18</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>2</v>
+        <v>18</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>643150019-2</t>
+          <t>643150056-6</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>นายชินพัฒน์ สุวรรณโสฬส</t>
+          <t>นางสาวจุฑารัตน์ นาคดี</t>
         </is>
       </c>
       <c r="D19" t="n">
-        <v>8</v>
+        <v>15</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>48</v>
+        <v>19</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>643150155-4</t>
+          <t>643150057-4</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>นายสมรรถชัย จิโนการ</t>
+          <t>นางสาวณัฐกฤตา ปรากฏกล้า</t>
         </is>
       </c>
       <c r="D20" t="n">
-        <v>8</v>
+        <v>14</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>37</v>
+        <v>20</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>643150142-3</t>
+          <t>643150058-2</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>นายธีรภัทร เข็มอนุสุข</t>
+          <t>นางสาวดลพาห์ ภูสอดเงิน</t>
         </is>
       </c>
       <c r="D21" t="n">
-        <v>8</v>
+        <v>20</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
+        <v>21</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>643150059-0</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>นางสาวดาธชา วีระจิตสกุลงาม</t>
+        </is>
+      </c>
+      <c r="D22" t="n">
         <v>18</v>
-      </c>
-      <c r="B22" t="inlineStr">
-        <is>
-          <t>643150056-6</t>
-        </is>
-      </c>
-      <c r="C22" t="inlineStr">
-        <is>
-          <t>นางสาวจุฑารัตน์ นาคดี</t>
-        </is>
-      </c>
-      <c r="D22" t="n">
-        <v>9</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>45</v>
+        <v>22</v>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>643150152-0</t>
+          <t>643150061-3</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>นายวีนณ์ นาคทอง</t>
+          <t>นายธนเดช หาวงค์</t>
         </is>
       </c>
       <c r="D23" t="n">
-        <v>9</v>
+        <v>16</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>41</v>
+        <v>23</v>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>643150146-5</t>
+          <t>643150062-1</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>นางสาวปพรรษกร คชาธาร</t>
+          <t>นางสาวธนพร วงษ์วัฒนะ</t>
         </is>
       </c>
       <c r="D24" t="n">
-        <v>10</v>
+        <v>13</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>44</v>
+        <v>24</v>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>643150150-4</t>
+          <t>643150063-9</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>นางสาวมณีกานต์ สุปัญญา</t>
+          <t>นางสาวนภัสสร โพธิ์พุฒ</t>
         </is>
       </c>
       <c r="D25" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>643150026-5</t>
+          <t>643150065-5</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>นางสาวใบโพธิ์ ศรีสว่างวงศ์</t>
+          <t>นางสาวนันทภัค ศรีลารัมย์</t>
         </is>
       </c>
       <c r="D26" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
     </row>
     <row r="27">
@@ -920,439 +920,439 @@
         </is>
       </c>
       <c r="D27" t="n">
-        <v>10</v>
+        <v>16</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>5</v>
+        <v>27</v>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>643150022-3</t>
+          <t>643150070-2</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>นางสาวณัฐิดา สวัสดิ์นพรัตน์</t>
+          <t>นางสาววิภาพร จักษุมา</t>
         </is>
       </c>
       <c r="D28" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>47</v>
+        <v>28</v>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>643150154-6</t>
+          <t>643150071-0</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>นางสาวศศิประภา นาจรวย</t>
+          <t>นางสาวสายสวรรค์ รุจิจนากุล</t>
         </is>
       </c>
       <c r="D29" t="n">
-        <v>9</v>
+        <v>17</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>643150135-0</t>
+          <t>643150133-4</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>นางสาวจารุภา ศรีบุญเรือง</t>
+          <t>นายเกริกไกวัล พิมพ์สวัสดิ์</t>
         </is>
       </c>
       <c r="D30" t="n">
-        <v>9</v>
+        <v>13</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>643150063-9</t>
+          <t>643150134-2</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>นางสาวนภัสสร โพธิ์พุฒ</t>
+          <t>นางสาวคีตกานท์ สอนกุลภักดี</t>
         </is>
       </c>
       <c r="D31" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>643150141-5</t>
+          <t>643150135-0</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>นางสาวธิวาภรณ์ พักใส</t>
+          <t>นางสาวจารุภา ศรีบุญเรือง</t>
         </is>
       </c>
       <c r="D32" t="n">
-        <v>8</v>
+        <v>11</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>21</v>
+        <v>32</v>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>643150059-0</t>
+          <t>643150137-6</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>นางสาวดาธชา วีระจิตสกุลงาม</t>
+          <t>นางสาวทักษนันท์ จันทร์ทวิชัย</t>
         </is>
       </c>
       <c r="D33" t="n">
-        <v>8</v>
+        <v>16</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>643150133-4</t>
+          <t>643150138-4</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>นายเกริกไกวัล พิมพ์สวัสดิ์</t>
+          <t>นายธนกฤต จันทร์ดวง</t>
         </is>
       </c>
       <c r="D34" t="n">
-        <v>7</v>
+        <v>20</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>19</v>
+        <v>34</v>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>643150057-4</t>
+          <t>643150139-2</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>นางสาวณัฐกฤตา ปรากฏกล้า</t>
+          <t>นางสาวธนภรณ์ พงศ์มานะชัย</t>
         </is>
       </c>
       <c r="D35" t="n">
-        <v>7</v>
+        <v>16</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>12</v>
+        <v>35</v>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>643150030-4</t>
+          <t>643150140-7</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>นายภาณพ สนิมทอง</t>
+          <t>นายธนภูมิ พิบูลภักดี</t>
         </is>
       </c>
       <c r="D36" t="n">
-        <v>7</v>
+        <v>19</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>16</v>
+        <v>36</v>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>643150035-4</t>
+          <t>643150141-5</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>นางสาวศศิกานต์ การปลูก</t>
+          <t>นางสาวธิวาภรณ์ พักใส</t>
         </is>
       </c>
       <c r="D37" t="n">
-        <v>6</v>
+        <v>12</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>643150137-6</t>
+          <t>643150142-3</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>นางสาวทักษนันท์ จันทร์ทวิชัย</t>
+          <t>นายธีรภัทร เข็มอนุสุข</t>
         </is>
       </c>
       <c r="D38" t="n">
-        <v>6</v>
+        <v>20</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>25</v>
+        <v>38</v>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>643150065-5</t>
+          <t>643150143-1</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>นางสาวนันทภัค ศรีลารัมย์</t>
+          <t>นางสาวนริศรา ตาระบัตร</t>
         </is>
       </c>
       <c r="D39" t="n">
-        <v>5</v>
+        <v>13</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>50</v>
+        <v>39</v>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>643150189-7</t>
+          <t>643150144-9</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>นางสาววชิราภรณ์ โพธิ์เงิน</t>
+          <t>นายนวดล สมทา</t>
         </is>
       </c>
       <c r="D40" t="n">
-        <v>5</v>
+        <v>18</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>13</v>
+        <v>40</v>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>643150031-2</t>
+          <t>643150145-7</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>นางสาวยลรดี จุลานนท์</t>
+          <t>นายนัฐพล ฤทธิ์ทรงเมือง</t>
         </is>
       </c>
       <c r="D41" t="n">
-        <v>5</v>
+        <v>12</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>20</v>
+        <v>41</v>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>643150058-2</t>
+          <t>643150146-5</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>นางสาวดลพาห์ ภูสอดเงิน</t>
+          <t>นางสาวปพรรษกร คชาธาร</t>
         </is>
       </c>
       <c r="D42" t="n">
-        <v>4</v>
+        <v>11</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
+        <v>42</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>643150148-1</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>นางสาวภัทรภรณ์ พุ่มสวัสดิ์</t>
+        </is>
+      </c>
+      <c r="D43" t="n">
         <v>14</v>
-      </c>
-      <c r="B43" t="inlineStr">
-        <is>
-          <t>643150032-0</t>
-        </is>
-      </c>
-      <c r="C43" t="inlineStr">
-        <is>
-          <t>นางสาวรตินันท์ ทองสุกดี</t>
-        </is>
-      </c>
-      <c r="D43" t="n">
-        <v>4</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>6</v>
+        <v>43</v>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>643150023-1</t>
+          <t>643150149-9</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>นางสาวณิศวราพร โสดาศรี</t>
+          <t>นางสาวภัทราวดี หมู่มาก</t>
         </is>
       </c>
       <c r="D44" t="n">
-        <v>3</v>
+        <v>17</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>28</v>
+        <v>44</v>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>643150071-0</t>
+          <t>643150150-4</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>นางสาวสายสวรรค์ รุจิจนากุล</t>
+          <t>นางสาวมณีกานต์ สุปัญญา</t>
         </is>
       </c>
       <c r="D45" t="n">
-        <v>3</v>
+        <v>12</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>34</v>
+        <v>45</v>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>643150139-2</t>
+          <t>643150152-0</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>นางสาวธนภรณ์ พงศ์มานะชัย</t>
+          <t>นายวีนณ์ นาคทอง</t>
         </is>
       </c>
       <c r="D46" t="n">
-        <v>3</v>
+        <v>14</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>4</v>
+        <v>46</v>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>643150021-5</t>
+          <t>643150153-8</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>นางสาวณัฐวดี เสนาฤทธิ์</t>
+          <t>นางสาวศยามล จุลหงษ์</t>
         </is>
       </c>
       <c r="D47" t="n">
-        <v>2</v>
+        <v>13</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>643150148-1</t>
+          <t>643150154-6</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>นางสาวภัทรภรณ์ พุ่มสวัสดิ์</t>
+          <t>นางสาวศศิประภา นาจรวย</t>
         </is>
       </c>
       <c r="D48" t="n">
-        <v>2</v>
+        <v>19</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>643150153-8</t>
+          <t>643150155-4</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>นางสาวศยามล จุลหงษ์</t>
+          <t>นายสมรรถชัย จิโนการ</t>
         </is>
       </c>
       <c r="D49" t="n">
-        <v>1</v>
+        <v>15</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>27</v>
+        <v>49</v>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>643150070-2</t>
+          <t>643150158-8</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>นางสาววิภาพร จักษุมา</t>
+          <t>นางสาวอัจฉรียา ภูดินดาน</t>
         </is>
       </c>
       <c r="D50" t="n">
-        <v>1</v>
+        <v>11</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>3</v>
+        <v>50</v>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>643150020-7</t>
+          <t>643150189-7</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>นายณัชพล สีตะปัน</t>
+          <t>นางสาววชิราภรณ์ โพธิ์เงิน</t>
         </is>
       </c>
       <c r="D51" t="n">
-        <v>1</v>
+        <v>19</v>
       </c>
     </row>
   </sheetData>
